--- a/zestawienie.xlsx
+++ b/zestawienie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adria\Desktop\STUDIA_FOLDERY\TELEDETEKCJA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D98CD42A-6F94-4D25-8981-3954F977C5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3CEA66D-E538-408B-91C3-4D1394743AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13068" yWindow="-2868" windowWidth="13176" windowHeight="22656" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -99,16 +99,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -392,7 +391,7 @@
   <dimension ref="B2:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,121 +403,120 @@
       <c r="C2" s="1">
         <v>7</v>
       </c>
-      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>48</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="2"/>
+      <c r="B4" s="3"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>157</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>77.282899921197796</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="2"/>
+      <c r="B7" s="3"/>
       <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>131</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>70.443656422379803</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
       <c r="C10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>134</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="2"/>
+      <c r="B11" s="3"/>
       <c r="C11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>71.226950354609897</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B13" s="2"/>
+      <c r="B13" s="3"/>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>120</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B14" s="2"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>65.393223010244199</v>
       </c>
     </row>
@@ -529,121 +527,120 @@
       <c r="C16" s="1">
         <v>0</v>
       </c>
-      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="2"/>
+      <c r="B18" s="3"/>
       <c r="C18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>101.36163265306099</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="2">
         <v>47</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="2"/>
+      <c r="B21" s="3"/>
       <c r="C21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>203</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="2"/>
+      <c r="B22" s="3"/>
       <c r="C22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>127.01306122448899</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="2"/>
+      <c r="B24" s="3"/>
       <c r="C24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>217</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="2"/>
+      <c r="B25" s="3"/>
       <c r="C25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>132.78448979591801</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>43</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
+      <c r="B27" s="3"/>
       <c r="C27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>205</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
+      <c r="B28" s="3"/>
       <c r="C28" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>128.091428571428</v>
       </c>
     </row>
@@ -654,131 +651,125 @@
       <c r="C30" s="1">
         <v>3</v>
       </c>
-      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>59</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
+      <c r="B32" s="3"/>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="2">
         <v>178</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="2">
         <v>90.4195348837209</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="3">
+      <c r="D34" s="2">
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
+      <c r="B35" s="3"/>
       <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="2">
         <v>189</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
+      <c r="B36" s="3"/>
       <c r="C36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="3">
+      <c r="D36" s="2">
         <v>98.903255813953393</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="3">
+      <c r="D37" s="2">
         <v>55</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
+      <c r="B38" s="3"/>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D38" s="3">
+      <c r="D38" s="2">
         <v>193</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
+      <c r="B39" s="3"/>
       <c r="C39" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D39" s="3">
+      <c r="D39" s="2">
         <v>96.621395348837197</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="2">
         <v>44</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
+      <c r="B41" s="3"/>
       <c r="C41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="3">
+      <c r="D41" s="2">
         <v>191</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
+      <c r="B42" s="3"/>
       <c r="C42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="2">
         <v>92.0595348837209</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:B8"/>
@@ -786,6 +777,11 @@
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
